--- a/Network-Basic/Firewall-pfSense/19_IP_Planing _HApfSense_IPSEC.xlsx
+++ b/Network-Basic/Firewall-pfSense/19_IP_Planing _HApfSense_IPSEC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TuDV-ThucTap2025\THUCTAPNHANHOA2025-HATANG\Network-Basic\Firewall-pfSense\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THUCTAPNHANHOA2025-HATANG\Network-Basic\Firewall-pfSense\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4AD50C-E7E0-42BF-AFD0-2EC5F0F8F97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -102,9 +101,6 @@
     <t>10.10.202.10</t>
   </si>
   <si>
-    <t>Subnet 10.10.203.0/24</t>
-  </si>
-  <si>
     <t>Subnet 10.10.204.0/24</t>
   </si>
   <si>
@@ -120,12 +116,6 @@
     <t>pfSense9203</t>
   </si>
   <si>
-    <t>10.10.203.133</t>
-  </si>
-  <si>
-    <t>10.10.204.133</t>
-  </si>
-  <si>
     <t>pfSense9204</t>
   </si>
   <si>
@@ -141,24 +131,12 @@
     <t>LAN VIP 204</t>
   </si>
   <si>
-    <t>10.10.203.1</t>
-  </si>
-  <si>
-    <t>10.10.204.1</t>
-  </si>
-  <si>
     <t>VM203.10</t>
   </si>
   <si>
     <t>VM204.10</t>
   </si>
   <si>
-    <t>10.10.203.10</t>
-  </si>
-  <si>
-    <t>10.10.204.10</t>
-  </si>
-  <si>
     <t>Firewall pfSense là VM trong KVM số 1</t>
   </si>
   <si>
@@ -168,12 +146,6 @@
     <t>Virtual IP Gateway LAN202</t>
   </si>
   <si>
-    <t>Virtual IP Gateway LAN203</t>
-  </si>
-  <si>
-    <t>Virtual IP Gateway LAN204</t>
-  </si>
-  <si>
     <t>VM</t>
   </si>
   <si>
@@ -192,22 +164,49 @@
     <t>10.10.202.254</t>
   </si>
   <si>
-    <t>10.10.203.253</t>
-  </si>
-  <si>
-    <t>10.10.203.254</t>
-  </si>
-  <si>
-    <t>10.10.204.253</t>
-  </si>
-  <si>
-    <t>10.10.204.254</t>
+    <t>Subnet 10.10.211.0/24</t>
+  </si>
+  <si>
+    <t>10.10.211.133</t>
+  </si>
+  <si>
+    <t>10.10.211.1</t>
+  </si>
+  <si>
+    <t>10.10.211.10</t>
+  </si>
+  <si>
+    <t>10.10.211.253</t>
+  </si>
+  <si>
+    <t>10.10.211.254</t>
+  </si>
+  <si>
+    <t>10.10.212.133</t>
+  </si>
+  <si>
+    <t>10.10.212.1</t>
+  </si>
+  <si>
+    <t>10.10.212.10</t>
+  </si>
+  <si>
+    <t>10.10.212.253</t>
+  </si>
+  <si>
+    <t>10.10.212.254</t>
+  </si>
+  <si>
+    <t>Virtual IP Gateway LAN211</t>
+  </si>
+  <si>
+    <t>Virtual IP Gateway LAN212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,16 +331,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -623,74 +622,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="44" style="1" customWidth="1"/>
-    <col min="5" max="7" width="46.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" customWidth="1"/>
+    <col min="5" max="7" width="46.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
       <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -704,7 +703,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -712,7 +711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -723,18 +722,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -745,23 +744,23 @@
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -771,15 +770,15 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -789,10 +788,10 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -807,10 +806,10 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -825,10 +824,10 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -838,7 +837,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -848,7 +847,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -859,120 +858,120 @@
       <c r="D13" s="5"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="H14" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="H15" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -981,7 +980,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -990,7 +989,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -999,7 +998,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
